--- a/GameDesign/HMtable/StringTable.xlsx
+++ b/GameDesign/HMtable/StringTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\최종 - 복사본\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\HMtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8907146-48E5-4BC9-9FAE-3528F56B37A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E41CBF-C80C-44EF-A63C-7FA6BE9EC499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9402571C-C966-43EB-8D46-D7C3FE8CCAA3}"/>
+    <workbookView xWindow="5616" yWindow="2604" windowWidth="16332" windowHeight="8964" xr2:uid="{9402571C-C966-43EB-8D46-D7C3FE8CCAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>StringID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,64 @@
   </si>
   <si>
     <t>스트링 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_t2</t>
+  </si>
+  <si>
+    <t>Hero_t3</t>
+  </si>
+  <si>
+    <t>Hero_t4</t>
+  </si>
+  <si>
+    <t>레이널드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_name_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero_name_2</t>
+  </si>
+  <si>
+    <t>Hero_name_3</t>
+  </si>
+  <si>
+    <t>Hero_name_4</t>
+  </si>
+  <si>
+    <t>아시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38174C64-BDFD-49C0-8F72-60CEF3964ED7}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1093,6 +1151,70 @@
       </c>
       <c r="B42" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
